--- a/TenaIzy.xlsx
+++ b/TenaIzy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laude\Desktop\DEVEXCEL\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1621">
   <si>
     <t>Direction</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>N°(Identification)</t>
-  </si>
-  <si>
-    <t>ListeDirection</t>
   </si>
   <si>
     <t>AMORON'I MANIA</t>
@@ -5147,30 +5144,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tableau20" displayName="Tableau20" ref="B28:B33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tableau20" displayName="Tableau20" ref="B28:B33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B28:B33"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Alaotra_Mangoro" dataDxfId="8"/>
+    <tableColumn id="1" name="Alaotra_Mangoro" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tableau21" displayName="Tableau21" ref="C28:C36" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tableau21" displayName="Tableau21" ref="C28:C36" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="C28:C36"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Analamanga" dataDxfId="5"/>
+    <tableColumn id="1" name="Analamanga" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tableau22" displayName="Tableau22" ref="D28:D32" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tableau22" displayName="Tableau22" ref="D28:D32" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="D28:D32"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Amoron_i_Mania" dataDxfId="2"/>
+    <tableColumn id="1" name="Amoron_i_Mania" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5582,10 +5579,10 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5614,8 +5611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BC213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5631,5970 +5628,5970 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>1599</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>1600</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>1602</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>1603</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>1604</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>1605</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>1606</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>1607</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="N28" s="5" t="s">
         <v>1608</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="O28" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="P28" s="5" t="s">
         <v>1610</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="Q28" s="5" t="s">
         <v>1611</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="R28" s="5" t="s">
         <v>1612</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="S28" s="5" t="s">
         <v>1613</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="T28" s="5" t="s">
         <v>1614</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="U28" s="5" t="s">
         <v>1615</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="V28" s="5" t="s">
         <v>1616</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="W28" s="5" t="s">
         <v>1617</v>
       </c>
-      <c r="W28" s="5" t="s">
+      <c r="X28" s="5" t="s">
         <v>1618</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I37" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:45" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="L42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L42" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="X42" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA42" s="5" t="s">
+      <c r="AK42" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AC42" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK42" s="5" t="s">
+      <c r="AM42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS42" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="AM42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS42" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="43" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H43" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z43" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA43" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC43" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG43" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI43" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="X43" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z43" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA43" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC43" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="AG43" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="AI43" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="AK43" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AM43" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AO43" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ43" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="AQ43" s="4" t="s">
-        <v>471</v>
-      </c>
       <c r="AS43" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X44" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG44" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AI44" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK44" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AM44" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AQ44" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AS44" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG45" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AI45" s="4" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="AK45" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AM45" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AQ45" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AS45" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z46" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AA46" s="5" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG46" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AI46" s="4" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="AK46" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AQ46" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AS46" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V47" s="4" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="X47" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG47" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AI47" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AQ47" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS47" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="X48" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG48" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AI48" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AM48" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AQ48" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AS48" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V49" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG49" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AI49" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM49" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AQ49" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AS49" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z50" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG50" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AI50" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AK50" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM50" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AQ50" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS50" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V51" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X51" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z51" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AA51" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="AG51" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AI51" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AK51" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AM51" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AS51" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F52" s="4"/>
       <c r="H52" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T52" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X52" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AA52" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AC52" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG52" s="4" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="AI52" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AK52" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AM52" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AS52" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG53" s="5" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="AI53" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AK53" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AM53" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V54" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG54" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AI54" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AK54" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AM54" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Z55" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG55" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AK55" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM55" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AC56" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG56" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AK56" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AM56" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG57" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM57" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T58" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X58" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA58" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG58" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM58" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X59" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AA59" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG59" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AM59" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X60" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AA60" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG60" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM60" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T61" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA61" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG61" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AM61" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AA62" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG62" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T63" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AA63" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG63" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T64" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA64" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG64" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T65" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA65" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG65" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA66" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG66" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="2:46" x14ac:dyDescent="0.25">
       <c r="T67" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA67" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG67" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="2:46" x14ac:dyDescent="0.25">
       <c r="AA68" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="F70" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="H70" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="J70" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="L70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L70" s="5" t="s">
+      <c r="N70" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="P70" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P70" s="5" t="s">
+      <c r="R70" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="R70" s="5" t="s">
+      <c r="T70" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="T70" s="5" t="s">
+      <c r="V70" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="V70" s="5" t="s">
+      <c r="X70" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="X70" s="5" t="s">
+      <c r="Z70" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="Z70" s="5" t="s">
+      <c r="AB70" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AB70" s="5" t="s">
+      <c r="AD70" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AD70" s="5" t="s">
+      <c r="AF70" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AF70" s="5" t="s">
+      <c r="AH70" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AH70" s="5" t="s">
+      <c r="AJ70" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AJ70" s="5" t="s">
+      <c r="AL70" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AL70" s="5" t="s">
+      <c r="AN70" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AN70" s="5" t="s">
+      <c r="AP70" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AP70" s="5" t="s">
+      <c r="AR70" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AR70" s="5" t="s">
+      <c r="AT70" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="AT70" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="71" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="T71" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="V71" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="X71" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="Z71" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="Z71" s="4" t="s">
-        <v>636</v>
-      </c>
       <c r="AB71" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AD71" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AF71" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH71" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AJ71" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AL71" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN71" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AP71" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AR71" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="AT71" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="AT71" s="4" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="72" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T72" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="V72" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AB72" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AD72" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF72" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AH72" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AJ72" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AL72" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AN72" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AP72" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AT72" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="73" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R73" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="T73" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V73" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Z73" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AB73" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AD73" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF73" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AH73" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AJ73" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AL73" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AN73" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AP73" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AT73" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="74" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="T74" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AB74" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AD74" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AF74" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AH74" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AJ74" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AL74" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AN74" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AP74" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AT74" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="75" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T75" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="V75" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z75" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AB75" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AD75" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AF75" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AJ75" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AL75" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AN75" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AP75" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AT75" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="76" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T76" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="V76" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z76" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AB76" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AD76" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AF76" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AJ76" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AL76" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AN76" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AP76" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AT76" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="77" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T77" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="V77" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AB77" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AD77" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AJ77" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AL77" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AN77" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AP77" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AT77" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="78" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T78" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="V78" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AB78" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AD78" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AJ78" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AL78" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN78" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AP78" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AT78" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="79" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T79" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V79" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Z79" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AB79" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AD79" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AL79" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AP79" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AT79" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="80" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T80" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V80" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AB80" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AD80" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AL80" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AP80" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AT80" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="81" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T81" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V81" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Z81" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB81" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AD81" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL81" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AP81" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AT81" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="82" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="R82" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="V82" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Z82" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AB82" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AD82" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AL82" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AP82" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AT82" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="83" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="V83" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Z83" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AB83" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AD83" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AL83" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AT83" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="84" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="R84" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="V84" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Z84" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AB84" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AD84" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AL84" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AT84" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="85" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="R85" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="Z85" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AB85" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AD85" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AL85" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AT85" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="86" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AB86" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AD86" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AL86" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AT86" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="87" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Z87" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AB87" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AL87" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AT87" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="88" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AB88" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AL88" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AT88" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="89" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AB89" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AL89" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AT89" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="90" spans="2:46" x14ac:dyDescent="0.25">
       <c r="L90" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AL90" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AT90" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="91" spans="2:46" x14ac:dyDescent="0.25">
       <c r="L91" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AL91" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AT91" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="92" spans="2:46" x14ac:dyDescent="0.25">
       <c r="N92" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AL92" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AT92" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="93" spans="2:46" x14ac:dyDescent="0.25">
       <c r="N93" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AL93" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AT93" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="94" spans="2:46" x14ac:dyDescent="0.25">
       <c r="N94" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AL94" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="95" spans="2:46" x14ac:dyDescent="0.25">
       <c r="N95" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AL95" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="96" spans="2:46" x14ac:dyDescent="0.25">
       <c r="N96" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AL96" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="97" spans="2:38" x14ac:dyDescent="0.25">
       <c r="N97" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AL97" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="98" spans="2:38" x14ac:dyDescent="0.25">
       <c r="N98" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="100" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="F101" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="H101" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="J101" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J101" s="5" t="s">
+      <c r="L101" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="L101" s="5" t="s">
+      <c r="N101" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N101" s="5" t="s">
+      <c r="P101" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P101" s="5" t="s">
+      <c r="R101" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="R101" s="5" t="s">
+      <c r="T101" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="T101" s="5" t="s">
+      <c r="V101" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="V101" s="5" t="s">
+      <c r="X101" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="X101" s="5" t="s">
+      <c r="Z101" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="Z101" s="5" t="s">
+      <c r="AB101" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AB101" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="AD101" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF101" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AF101" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="AH101" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="R102" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T102" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="V102" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="X102" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Z102" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AB102" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AD102" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AF102" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AH102" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AL102" s="4"/>
     </row>
     <row r="103" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="R103" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="V103" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="X103" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Z103" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AB103" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AD103" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF103" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AH103" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AL103" s="4"/>
     </row>
     <row r="104" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="R104" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="V104" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="X104" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Z104" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB104" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD104" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AF104" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AH104" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="105" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="R105" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="V105" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="X105" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="Z105" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AD105" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AF105" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AH105" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="106" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="R106" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="V106" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="X106" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Z106" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AD106" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AF106" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AH106" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="107" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="R107" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="V107" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="X107" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Z107" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AD107" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AF107" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AH107" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="108" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="R108" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="V108" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="X108" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="Z108" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD108" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AF108" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AH108" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="109" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D109" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="P109" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R109" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="V109" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="X109" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AD109" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AF109" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AH109" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="110" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D110" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="P110" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="R110" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="V110" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="X110" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AF110" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AH110" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="111" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D111" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="P111" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="R111" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="V111" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="X111" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AF111" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AH111" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="112" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D112" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P112" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="X112" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AF112" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AH112" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="113" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D113" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="P113" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF113" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AH113" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="114" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D114" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF114" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AH114" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="115" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D115" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AF115" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AH115" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="116" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D116" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AF116" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AH116" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="117" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D117" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF117" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AH117" s="4" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="118" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D118" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AF118" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AH118" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="119" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D119" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AF119" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AH119" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="120" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D120" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AH120" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="121" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D121" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AH121" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="122" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D122" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AH122" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="123" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D123" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AH123" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="124" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D124" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AH124" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D125" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AH125" s="4" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="126" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D126" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="127" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D127" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="128" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D128" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="129" spans="2:46" x14ac:dyDescent="0.25">
       <c r="D129" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="130" spans="2:46" x14ac:dyDescent="0.25">
       <c r="D130" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="131" spans="2:46" x14ac:dyDescent="0.25">
       <c r="D131" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" spans="2:46" x14ac:dyDescent="0.25">
       <c r="D132" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="133" spans="2:46" x14ac:dyDescent="0.25">
       <c r="D133" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="135" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="F136" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="H136" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H136" s="5" t="s">
+      <c r="J136" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="J136" s="5" t="s">
+      <c r="L136" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="L136" s="5" t="s">
+      <c r="N136" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="P136" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="N136" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="P136" s="5" t="s">
+      <c r="R136" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R136" s="5" t="s">
+      <c r="T136" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T136" s="5" t="s">
+      <c r="V136" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X136" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z136" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB136" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="V136" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="X136" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z136" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB136" s="5" t="s">
+      <c r="AD136" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AD136" s="5" t="s">
+      <c r="AF136" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AF136" s="5" t="s">
+      <c r="AH136" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AH136" s="5" t="s">
+      <c r="AJ136" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AJ136" s="5" t="s">
+      <c r="AL136" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AL136" s="5" t="s">
+      <c r="AN136" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AN136" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="AP136" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR136" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AR136" s="5" t="s">
+      <c r="AT136" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="AT136" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="137" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B137" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D137" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="F137" s="4" t="s">
-        <v>1011</v>
-      </c>
       <c r="H137" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J137" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="J137" s="4" t="s">
-        <v>1032</v>
-      </c>
       <c r="L137" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="P137" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="R137" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="T137" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V137" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="X137" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="Z137" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AB137" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AD137" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AF137" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AH137" s="4" t="s">
         <v>1192</v>
       </c>
-      <c r="AH137" s="4" t="s">
-        <v>1193</v>
-      </c>
       <c r="AJ137" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AL137" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AN137" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AP137" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AR137" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AT137" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="138" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B138" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="P138" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R138" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="T138" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V138" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X138" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="Z138" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AB138" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AD138" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AH138" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AJ138" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AL138" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AN138" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AP138" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AR138" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AT138" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="139" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N139" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="R139" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="T139" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="V139" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="X139" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="Z139" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AB139" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AD139" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AH139" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AJ139" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AL139" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AN139" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AP139" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AR139" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AT139" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="140" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B140" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R140" s="4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="T140" s="5" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="V140" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="X140" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="Z140" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AB140" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AD140" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AH140" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AJ140" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AL140" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AN140" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AP140" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AR140" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AT140" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="141" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B141" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R141" s="4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V141" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="X141" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="Z141" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AB141" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD141" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AH141" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="AJ141" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AL141" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AN141" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AR141" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AT141" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="142" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B142" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="N142" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="R142" s="4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V142" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="X142" s="4" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="Z142" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AB142" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AD142" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AH142" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AJ142" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AL142" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AN142" s="4" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="AT142" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="143" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="N143" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="R143" s="4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="V143" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X143" s="4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="Z143" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AB143" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AD143" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AH143" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AJ143" s="5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AL143" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="AN143" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AT143" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="144" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B144" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="N144" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="R144" s="4" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="V144" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="X144" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="Z144" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AB144" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AD144" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AH144" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL144" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AN144" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AT144" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="145" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R145" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="V145" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="X145" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Z145" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB145" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AD145" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AH145" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AL145" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AN145" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="146" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B146" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="R146" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="V146" s="5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="X146" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Z146" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AB146" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD146" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH146" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AL146" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AN146" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="147" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B147" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R147" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="V147" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="X147" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="Z147" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AB147" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AD147" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AH147" s="5" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AL147" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AN147" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="148" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B148" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N148" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="R148" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="V148" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X148" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Z148" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AB148" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AD148" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AL148" s="4" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="AN148" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="149" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R149" s="4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="V149" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="X149" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Z149" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AB149" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AD149" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL149" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AN149" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="150" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="N150" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="R150" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="V150" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="X150" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="Z150" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AB150" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AD150" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AL150" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="151" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="R151" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="V151" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="Z151" s="5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AB151" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD151" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="152" spans="2:40" x14ac:dyDescent="0.25">
       <c r="F152" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="N152" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="R152" s="4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="V152" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AB152" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AD152" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="153" spans="2:40" x14ac:dyDescent="0.25">
       <c r="F153" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="R153" s="4" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="V153" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AB153" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AD153" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="154" spans="2:40" x14ac:dyDescent="0.25">
       <c r="F154" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N154" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="R154" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="V154" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="155" spans="2:40" x14ac:dyDescent="0.25">
       <c r="F155" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="N155" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R155" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="V155" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="156" spans="2:40" x14ac:dyDescent="0.25">
       <c r="F156" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="V156" s="5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="157" spans="2:40" x14ac:dyDescent="0.25">
       <c r="F157" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="V157" s="5" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="158" spans="2:40" x14ac:dyDescent="0.25">
       <c r="L158" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="V158" s="5" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="159" spans="2:40" x14ac:dyDescent="0.25">
       <c r="L159" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="V159" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="160" spans="2:40" x14ac:dyDescent="0.25">
       <c r="L160" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="V160" s="5" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="161" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L161" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="V161" s="5" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="162" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L162" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="V162" s="5" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="163" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L163" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="V163" s="5" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="164" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L164" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="V164" s="5" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="165" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L165" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="V165" s="5" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="166" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L166" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="V166" s="5" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="167" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L167" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V167" s="5" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="168" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L168" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="V168" s="5" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="169" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L169" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="170" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L170" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="171" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L171" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="172" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L172" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="173" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L173" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="174" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L174" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="175" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L175" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="176" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L176" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="177" spans="2:55" x14ac:dyDescent="0.25">
       <c r="L177" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="178" spans="2:55" x14ac:dyDescent="0.25">
       <c r="L178" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="179" spans="2:55" x14ac:dyDescent="0.25">
       <c r="L179" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="180" spans="2:55" x14ac:dyDescent="0.25">
       <c r="L180" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="181" spans="2:55" x14ac:dyDescent="0.25">
       <c r="L181" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="182" spans="2:55" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="183" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B183" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D183" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="E183" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G183" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G183" s="5" t="s">
+      <c r="I183" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I183" s="5" t="s">
+      <c r="K183" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K183" s="5" t="s">
+      <c r="M183" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M183" s="5" t="s">
+      <c r="O183" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="O183" s="5" t="s">
+      <c r="Q183" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="Q183" s="5" t="s">
+      <c r="S183" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="S183" s="5" t="s">
+      <c r="U183" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="U183" s="5" t="s">
+      <c r="W183" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="W183" s="5" t="s">
+      <c r="Y183" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Y183" s="5" t="s">
+      <c r="AA183" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AA183" s="5" t="s">
+      <c r="AC183" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AC183" s="5" t="s">
+      <c r="AE183" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AE183" s="5" t="s">
+      <c r="AG183" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="AG183" s="5" t="s">
+      <c r="AI183" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AI183" s="5" t="s">
+      <c r="AK183" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="AK183" s="5" t="s">
+      <c r="AM183" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AM183" s="5" t="s">
+      <c r="AO183" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AO183" s="5" t="s">
+      <c r="AQ183" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AQ183" s="5" t="s">
+      <c r="AS183" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="AS183" s="5" t="s">
+      <c r="AU183" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="AU183" s="5" t="s">
+      <c r="AW183" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="AW183" s="5" t="s">
+      <c r="AY183" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AY183" s="5" t="s">
+      <c r="BA183" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="BA183" s="5" t="s">
+      <c r="BC183" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="BC183" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="184" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B184" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="O184" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Q184" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="S184" s="5" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="U184" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="W184" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="Y184" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="AA184" s="5" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="AC184" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="AE184" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="AG184" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AI184" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="AK184" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AM184" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AO184" s="5" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AQ184" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AS184" s="4" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="AU184" s="4" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AW184" s="4" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY184" s="4" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="BA184" s="4" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="BC184" s="4" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="185" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B185" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K185" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="O185" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q185" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="S185" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="U185" s="4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="W185" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="Y185" s="4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="AA185" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AC185" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="AE185" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="AG185" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AI185" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="AK185" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="AM185" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="AQ185" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="AS185" s="4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="AU185" s="4" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AW185" s="4" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AY185" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="BA185" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="BC185" s="4" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="186" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B186" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="K186" s="4" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="O186" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q186" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="S186" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U186" s="4" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="W186" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Y186" s="4" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="AA186" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AC186" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="AE186" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="AG186" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="AI186" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="AK186" s="5" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="AM186" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="AQ186" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="AS186" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="AU186" s="4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AW186" s="4" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY186" s="4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="BA186" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="BC186" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="187" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B187" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="O187" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q187" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="S187" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="U187" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="W187" s="4" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="Y187" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AA187" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="AC187" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="AE187" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="AG187" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="AI187" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="AK187" s="4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="AM187" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="AQ187" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AS187" s="4" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="AU187" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AW187" s="4" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY187" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="BA187" s="4" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="BC187" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="188" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B188" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="M188" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O188" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q188" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="S188" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U188" s="4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="W188" s="4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="Y188" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="AA188" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="AC188" s="4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="AE188" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="AG188" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="AI188" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="AK188" s="4" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="AM188" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AQ188" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AS188" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AU188" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AW188" s="4" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="AY188" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="BA188" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BC188" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="189" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B189" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="O189" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Q189" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="S189" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="U189" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="W189" s="4" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="Y189" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="AA189" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="AC189" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="AE189" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="AG189" s="4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AI189" s="4" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="AK189" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="AM189" s="4" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AQ189" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="AS189" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AU189" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="AW189" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY189" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="BA189" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="BC189" s="4" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="190" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B190" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O190" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q190" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="S190" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="U190" s="4" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="W190" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="Y190" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="AA190" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC190" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="AE190" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="AG190" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AI190" s="4" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AK190" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="AM190" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AQ190" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="AS190" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AU190" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="AW190" s="4" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY190" s="4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="BA190" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="BC190" s="4" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="191" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B191" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O191" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q191" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="S191" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="U191" s="4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="W191" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="Y191" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="AA191" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="AC191" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="AE191" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="AG191" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AI191" s="4" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="AK191" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="AM191" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="AQ191" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="AS191" s="4" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AU191" s="4" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AW191" s="5" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY191" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="BA191" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="BC191" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="192" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B192" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="O192" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q192" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="S192" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="U192" s="4" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="W192" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Y192" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="AA192" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="AC192" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="AE192" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="AG192" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="AI192" s="4" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="AK192" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="AM192" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AQ192" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="AS192" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AU192" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="AY192" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="BA192" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="BC192" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="193" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B193" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="O193" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Q193" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="S193" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="U193" s="4" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="W193" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="Y193" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="AA193" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AC193" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AE193" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="AG193" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="AI193" s="4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AK193" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="AM193" s="4" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="AQ193" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="AS193" s="4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY193" s="4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="BA193" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="BC193" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="194" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B194" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="O194" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Q194" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="S194" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="U194" s="4" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="W194" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="Y194" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="AA194" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="AC194" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AG194" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="AI194" s="4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="AK194" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AM194" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AQ194" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="AS194" s="4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY194" s="4" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="BA194" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="BC194" s="5" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="195" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B195" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="O195" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q195" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="S195" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="U195" s="4" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="W195" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Y195" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="AA195" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="AC195" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="AG195" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AI195" s="4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="AK195" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AM195" s="5" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="AQ195" s="4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="AS195" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AY195" s="4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="BA195" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="BC195" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B196" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="O196" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Q196" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="S196" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="U196" s="4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="W196" s="5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="AA196" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="AG196" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="AI196" s="4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="AK196" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="AQ196" s="4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="AS196" s="4" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY196" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BA196" s="4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="BC196" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="197" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B197" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="O197" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Q197" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="S197" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="U197" s="4" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="AA197" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="AG197" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="AI197" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="AK197" s="4" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="AQ197" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AS197" s="4" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="BA197" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="BC197" s="4" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="198" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B198" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="K198" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O198" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Q198" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S198" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="U198" s="4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="AA198" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="AG198" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="AI198" s="5" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="AK198" s="4" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="AQ198" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="AS198" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="BA198" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="BC198" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="199" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B199" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O199" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q199" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="S199" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="U199" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="AA199" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="AG199" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="AK199" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AQ199" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="AS199" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="BA199" s="4" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="BC199" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="200" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B200" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O200" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q200" s="5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="S200" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="U200" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="AA200" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="AG200" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK200" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AQ200" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="AS200" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BA200" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BC200" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="201" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B201" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O201" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S201" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="U201" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="AA201" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="AG201" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="AK201" s="5" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="AQ201" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="AS201" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="BA201" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="BC201" s="5" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="202" spans="2:55" x14ac:dyDescent="0.25">
       <c r="S202" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="U202" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG202" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AQ202" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="BA202" s="4" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="203" spans="2:55" x14ac:dyDescent="0.25">
       <c r="S203" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="AG203" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="AQ203" s="5" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="BA203" s="4" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="204" spans="2:55" x14ac:dyDescent="0.25">
       <c r="S204" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AG204" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="BA204" s="4" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="205" spans="2:55" x14ac:dyDescent="0.25">
       <c r="S205" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AG205" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="BA205" s="4" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="206" spans="2:55" x14ac:dyDescent="0.25">
       <c r="S206" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG206" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="BA206" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="207" spans="2:55" x14ac:dyDescent="0.25">
       <c r="S207" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="AG207" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="BA207" s="4" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="208" spans="2:55" x14ac:dyDescent="0.25">
       <c r="S208" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AG208" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="BA208" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="209" spans="19:53" x14ac:dyDescent="0.25">
       <c r="S209" s="5" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AG209" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="BA209" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="210" spans="19:53" x14ac:dyDescent="0.25">
       <c r="AG210" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BA210" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="211" spans="19:53" x14ac:dyDescent="0.25">
       <c r="BA211" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="212" spans="19:53" x14ac:dyDescent="0.25">
       <c r="BA212" s="5" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="213" spans="19:53" s="7" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/TenaIzy.xlsx
+++ b/TenaIzy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laude\Desktop\DEVEXCEL\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLS\EXCEL MINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1622">
   <si>
     <t>Direction</t>
   </si>
@@ -4893,6 +4893,9 @@
   </si>
   <si>
     <t>Alaotra_Mangoro</t>
+  </si>
+  <si>
+    <t>Region test</t>
   </si>
 </sst>
 </file>
@@ -5443,37 +5446,37 @@
       <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="O2" t="s">
         <v>1619</v>
       </c>
@@ -5612,29 +5615,32 @@
   <dimension ref="B2:BC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="20.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="5"/>
+    <col min="2" max="2" width="20.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="15" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="25" width="11.42578125" style="5"/>
+    <col min="4" max="4" width="20.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="25" width="11.44140625" style="5"/>
     <col min="26" max="26" width="13" style="5" customWidth="1"/>
-    <col min="27" max="16384" width="11.42578125" style="5"/>
+    <col min="27" max="16384" width="11.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
@@ -5642,7 +5648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
@@ -5658,7 +5664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>37</v>
       </c>
@@ -5666,7 +5672,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
@@ -5674,7 +5680,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
@@ -5682,7 +5688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>40</v>
       </c>
@@ -5690,7 +5696,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
@@ -5698,7 +5704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
@@ -5706,7 +5712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
@@ -5722,7 +5728,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
@@ -5730,62 +5736,62 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D16" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D17" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D18" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D19" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D22" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D23" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D25" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>1620</v>
       </c>
@@ -5856,7 +5862,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>63</v>
       </c>
@@ -5927,7 +5933,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>64</v>
       </c>
@@ -5998,7 +6004,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>65</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>66</v>
       </c>
@@ -6116,7 +6122,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>67</v>
       </c>
@@ -6157,7 +6163,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:45" x14ac:dyDescent="0.3">
       <c r="C34" s="5" t="s">
         <v>83</v>
       </c>
@@ -6183,7 +6189,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:45" x14ac:dyDescent="0.3">
       <c r="C35" s="5" t="s">
         <v>84</v>
       </c>
@@ -6203,7 +6209,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:45" x14ac:dyDescent="0.3">
       <c r="C36" s="5" t="s">
         <v>85</v>
       </c>
@@ -6211,14 +6217,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:45" x14ac:dyDescent="0.3">
       <c r="I37" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:45" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:45" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>63</v>
       </c>
@@ -6289,7 +6295,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>181</v>
       </c>
@@ -6357,7 +6363,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>179</v>
       </c>
@@ -6422,7 +6428,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="45" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>187</v>
       </c>
@@ -6487,7 +6493,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="46" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>188</v>
       </c>
@@ -6552,7 +6558,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>189</v>
       </c>
@@ -6617,7 +6623,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>190</v>
       </c>
@@ -6682,7 +6688,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="49" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>191</v>
       </c>
@@ -6747,7 +6753,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="50" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>192</v>
       </c>
@@ -6812,7 +6818,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>180</v>
       </c>
@@ -6871,7 +6877,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="52" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>198</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>182</v>
       </c>
@@ -6975,7 +6981,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="54" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>183</v>
       </c>
@@ -7022,7 +7028,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="55" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>197</v>
       </c>
@@ -7063,7 +7069,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="56" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>194</v>
       </c>
@@ -7101,7 +7107,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="57" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>184</v>
       </c>
@@ -7131,7 +7137,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="58" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
         <v>201</v>
       </c>
@@ -7163,7 +7169,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="59" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>185</v>
       </c>
@@ -7193,7 +7199,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="60" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>193</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="61" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>186</v>
       </c>
@@ -7248,7 +7254,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="62" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>195</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="63" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>1590</v>
       </c>
@@ -7291,7 +7297,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>1591</v>
       </c>
@@ -7308,7 +7314,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="65" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>199</v>
       </c>
@@ -7325,7 +7331,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="66" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>200</v>
       </c>
@@ -7339,7 +7345,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="67" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:46" x14ac:dyDescent="0.3">
       <c r="T67" s="5" t="s">
         <v>335</v>
       </c>
@@ -7350,13 +7356,13 @@
         <v>430</v>
       </c>
     </row>
-    <row r="68" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:46" x14ac:dyDescent="0.3">
       <c r="AA68" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="69" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B70" s="5" t="s">
         <v>86</v>
       </c>
@@ -7427,7 +7433,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>483</v>
       </c>
@@ -7498,7 +7504,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="72" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>484</v>
       </c>
@@ -7563,7 +7569,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="73" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
         <v>485</v>
       </c>
@@ -7628,7 +7634,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="74" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
         <v>486</v>
       </c>
@@ -7693,7 +7699,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="75" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
         <v>487</v>
       </c>
@@ -7755,7 +7761,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="76" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
         <v>488</v>
       </c>
@@ -7814,7 +7820,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="77" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
         <v>489</v>
       </c>
@@ -7867,7 +7873,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="78" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
         <v>490</v>
       </c>
@@ -7917,7 +7923,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="79" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>491</v>
       </c>
@@ -7961,7 +7967,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="80" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
         <v>492</v>
       </c>
@@ -8005,7 +8011,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="81" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
         <v>493</v>
       </c>
@@ -8049,7 +8055,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="82" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>494</v>
       </c>
@@ -8090,7 +8096,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="83" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
         <v>495</v>
       </c>
@@ -8128,7 +8134,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="84" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
         <v>496</v>
       </c>
@@ -8166,7 +8172,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="85" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
         <v>497</v>
       </c>
@@ -8201,7 +8207,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="86" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>498</v>
       </c>
@@ -8236,7 +8242,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="87" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>499</v>
       </c>
@@ -8265,7 +8271,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="88" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>500</v>
       </c>
@@ -8288,7 +8294,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="89" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B89" s="5" t="s">
         <v>501</v>
       </c>
@@ -8311,7 +8317,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="90" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:46" x14ac:dyDescent="0.3">
       <c r="L90" s="4" t="s">
         <v>564</v>
       </c>
@@ -8325,7 +8331,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="91" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:46" x14ac:dyDescent="0.3">
       <c r="L91" s="5" t="s">
         <v>565</v>
       </c>
@@ -8339,7 +8345,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="92" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:46" x14ac:dyDescent="0.3">
       <c r="N92" s="4" t="s">
         <v>586</v>
       </c>
@@ -8350,7 +8356,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="93" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:46" x14ac:dyDescent="0.3">
       <c r="N93" s="4" t="s">
         <v>587</v>
       </c>
@@ -8361,7 +8367,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="94" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:46" x14ac:dyDescent="0.3">
       <c r="N94" s="4" t="s">
         <v>588</v>
       </c>
@@ -8369,7 +8375,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="95" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:46" x14ac:dyDescent="0.3">
       <c r="N95" s="4" t="s">
         <v>589</v>
       </c>
@@ -8377,7 +8383,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="96" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:46" x14ac:dyDescent="0.3">
       <c r="N96" s="4" t="s">
         <v>590</v>
       </c>
@@ -8385,7 +8391,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="97" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:38" x14ac:dyDescent="0.3">
       <c r="N97" s="4" t="s">
         <v>591</v>
       </c>
@@ -8393,13 +8399,13 @@
         <v>728</v>
       </c>
     </row>
-    <row r="98" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:38" x14ac:dyDescent="0.3">
       <c r="N98" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="100" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B101" s="5" t="s">
         <v>109</v>
       </c>
@@ -8452,7 +8458,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
         <v>771</v>
       </c>
@@ -8506,7 +8512,7 @@
       </c>
       <c r="AL102" s="4"/>
     </row>
-    <row r="103" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
         <v>772</v>
       </c>
@@ -8557,7 +8563,7 @@
       </c>
       <c r="AL103" s="4"/>
     </row>
-    <row r="104" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B104" s="5" t="s">
         <v>773</v>
       </c>
@@ -8607,7 +8613,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="105" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
         <v>774</v>
       </c>
@@ -8654,7 +8660,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="106" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>775</v>
       </c>
@@ -8701,7 +8707,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="107" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
         <v>776</v>
       </c>
@@ -8745,7 +8751,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="108" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B108" s="5" t="s">
         <v>777</v>
       </c>
@@ -8786,7 +8792,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="109" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:38" x14ac:dyDescent="0.3">
       <c r="D109" s="4" t="s">
         <v>784</v>
       </c>
@@ -8821,7 +8827,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="110" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:38" x14ac:dyDescent="0.3">
       <c r="D110" s="4" t="s">
         <v>785</v>
       </c>
@@ -8853,7 +8859,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="111" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:38" x14ac:dyDescent="0.3">
       <c r="D111" s="4" t="s">
         <v>786</v>
       </c>
@@ -8885,7 +8891,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="112" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:38" x14ac:dyDescent="0.3">
       <c r="D112" s="4" t="s">
         <v>787</v>
       </c>
@@ -8914,7 +8920,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="113" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D113" s="4" t="s">
         <v>788</v>
       </c>
@@ -8937,7 +8943,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="114" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D114" s="4" t="s">
         <v>789</v>
       </c>
@@ -8957,7 +8963,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="115" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D115" s="4" t="s">
         <v>790</v>
       </c>
@@ -8977,7 +8983,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="116" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D116" s="4" t="s">
         <v>791</v>
       </c>
@@ -8997,7 +9003,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="117" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D117" s="4" t="s">
         <v>792</v>
       </c>
@@ -9017,7 +9023,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="118" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D118" s="4" t="s">
         <v>793</v>
       </c>
@@ -9034,7 +9040,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="119" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D119" s="4" t="s">
         <v>794</v>
       </c>
@@ -9048,7 +9054,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="120" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D120" s="4" t="s">
         <v>795</v>
       </c>
@@ -9059,7 +9065,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="121" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D121" s="4" t="s">
         <v>796</v>
       </c>
@@ -9070,7 +9076,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="122" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D122" s="4" t="s">
         <v>797</v>
       </c>
@@ -9081,7 +9087,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="123" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D123" s="4" t="s">
         <v>798</v>
       </c>
@@ -9092,7 +9098,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="124" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D124" s="4" t="s">
         <v>799</v>
       </c>
@@ -9103,7 +9109,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D125" s="4" t="s">
         <v>800</v>
       </c>
@@ -9114,7 +9120,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="126" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D126" s="5" t="s">
         <v>801</v>
       </c>
@@ -9122,7 +9128,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="127" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D127" s="4" t="s">
         <v>802</v>
       </c>
@@ -9130,7 +9136,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="128" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D128" s="4" t="s">
         <v>299</v>
       </c>
@@ -9138,7 +9144,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="129" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:46" x14ac:dyDescent="0.3">
       <c r="D129" s="4" t="s">
         <v>803</v>
       </c>
@@ -9146,7 +9152,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="130" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:46" x14ac:dyDescent="0.3">
       <c r="D130" s="4" t="s">
         <v>804</v>
       </c>
@@ -9154,23 +9160,23 @@
         <v>840</v>
       </c>
     </row>
-    <row r="131" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:46" x14ac:dyDescent="0.3">
       <c r="D131" s="4" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="132" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:46" x14ac:dyDescent="0.3">
       <c r="D132" s="4" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="133" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:46" x14ac:dyDescent="0.3">
       <c r="D133" s="5" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="135" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B136" s="5" t="s">
         <v>134</v>
       </c>
@@ -9241,7 +9247,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="s">
         <v>995</v>
       </c>
@@ -9312,7 +9318,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="138" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B138" s="4" t="s">
         <v>996</v>
       </c>
@@ -9374,7 +9380,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="139" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
         <v>997</v>
       </c>
@@ -9436,7 +9442,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="140" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
         <v>998</v>
       </c>
@@ -9495,7 +9501,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="141" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
         <v>999</v>
       </c>
@@ -9548,7 +9554,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="142" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
         <v>1000</v>
       </c>
@@ -9598,7 +9604,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="143" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
         <v>616</v>
       </c>
@@ -9648,7 +9654,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="144" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
         <v>1001</v>
       </c>
@@ -9695,7 +9701,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="145" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>1002</v>
       </c>
@@ -9739,7 +9745,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="146" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>1003</v>
       </c>
@@ -9783,7 +9789,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="147" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
         <v>1004</v>
       </c>
@@ -9827,7 +9833,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="148" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
         <v>1005</v>
       </c>
@@ -9868,7 +9874,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="149" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>1006</v>
       </c>
@@ -9909,7 +9915,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="150" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
         <v>1007</v>
       </c>
@@ -9947,7 +9953,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="151" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B151" s="5" t="s">
         <v>1008</v>
       </c>
@@ -9979,7 +9985,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="152" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:40" x14ac:dyDescent="0.3">
       <c r="F152" s="4" t="s">
         <v>1024</v>
       </c>
@@ -10002,7 +10008,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="153" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:40" x14ac:dyDescent="0.3">
       <c r="F153" s="4" t="s">
         <v>1025</v>
       </c>
@@ -10025,7 +10031,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="154" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:40" x14ac:dyDescent="0.3">
       <c r="F154" s="4" t="s">
         <v>1026</v>
       </c>
@@ -10042,7 +10048,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="155" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:40" x14ac:dyDescent="0.3">
       <c r="F155" s="4" t="s">
         <v>1027</v>
       </c>
@@ -10059,7 +10065,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="156" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:40" x14ac:dyDescent="0.3">
       <c r="F156" s="4" t="s">
         <v>1028</v>
       </c>
@@ -10070,7 +10076,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="157" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:40" x14ac:dyDescent="0.3">
       <c r="F157" s="5" t="s">
         <v>1029</v>
       </c>
@@ -10081,7 +10087,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="158" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:40" x14ac:dyDescent="0.3">
       <c r="L158" s="4" t="s">
         <v>1064</v>
       </c>
@@ -10089,7 +10095,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="159" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:40" x14ac:dyDescent="0.3">
       <c r="L159" s="4" t="s">
         <v>1065</v>
       </c>
@@ -10097,7 +10103,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="160" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:40" x14ac:dyDescent="0.3">
       <c r="L160" s="4" t="s">
         <v>1066</v>
       </c>
@@ -10105,7 +10111,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="161" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L161" s="4" t="s">
         <v>1067</v>
       </c>
@@ -10113,7 +10119,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="162" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L162" s="4" t="s">
         <v>1068</v>
       </c>
@@ -10121,7 +10127,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="163" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L163" s="4" t="s">
         <v>1069</v>
       </c>
@@ -10129,7 +10135,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="164" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L164" s="4" t="s">
         <v>1070</v>
       </c>
@@ -10137,7 +10143,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="165" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L165" s="4" t="s">
         <v>1071</v>
       </c>
@@ -10145,7 +10151,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="166" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L166" s="4" t="s">
         <v>1072</v>
       </c>
@@ -10153,7 +10159,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="167" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L167" s="4" t="s">
         <v>1073</v>
       </c>
@@ -10161,7 +10167,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="168" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L168" s="4" t="s">
         <v>1074</v>
       </c>
@@ -10169,73 +10175,73 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="169" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L169" s="4" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="170" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L170" s="4" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="171" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L171" s="5" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="172" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L172" s="4" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="173" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L173" s="4" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="174" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L174" s="4" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="175" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L175" s="4" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="176" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L176" s="4" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="177" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:55" x14ac:dyDescent="0.3">
       <c r="L177" s="4" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="178" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:55" x14ac:dyDescent="0.3">
       <c r="L178" s="4" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="179" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:55" x14ac:dyDescent="0.3">
       <c r="L179" s="4" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="180" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:55" x14ac:dyDescent="0.3">
       <c r="L180" s="4" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="181" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:55" x14ac:dyDescent="0.3">
       <c r="L181" s="5" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="182" spans="2:55" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:55" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B183" s="6" t="s">
         <v>126</v>
       </c>
@@ -10321,7 +10327,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="184" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B184" s="5" t="s">
         <v>933</v>
       </c>
@@ -10407,7 +10413,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="185" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B185" s="5" t="s">
         <v>934</v>
       </c>
@@ -10490,7 +10496,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="186" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B186" s="4" t="s">
         <v>935</v>
       </c>
@@ -10573,7 +10579,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="187" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B187" s="4" t="s">
         <v>936</v>
       </c>
@@ -10653,7 +10659,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="188" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B188" s="4" t="s">
         <v>937</v>
       </c>
@@ -10733,7 +10739,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="189" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B189" s="4" t="s">
         <v>938</v>
       </c>
@@ -10810,7 +10816,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="190" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B190" s="4" t="s">
         <v>939</v>
       </c>
@@ -10884,7 +10890,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="191" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B191" s="4" t="s">
         <v>940</v>
       </c>
@@ -10958,7 +10964,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="192" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B192" s="4" t="s">
         <v>858</v>
       </c>
@@ -11029,7 +11035,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="193" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B193" s="4" t="s">
         <v>941</v>
       </c>
@@ -11097,7 +11103,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="194" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B194" s="4" t="s">
         <v>541</v>
       </c>
@@ -11162,7 +11168,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="195" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B195" s="4" t="s">
         <v>942</v>
       </c>
@@ -11224,7 +11230,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="196" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B196" s="4" t="s">
         <v>943</v>
       </c>
@@ -11277,7 +11283,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="197" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B197" s="4" t="s">
         <v>944</v>
       </c>
@@ -11324,7 +11330,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="198" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
         <v>945</v>
       </c>
@@ -11368,7 +11374,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B199" s="4" t="s">
         <v>946</v>
       </c>
@@ -11406,7 +11412,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="200" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B200" s="4" t="s">
         <v>947</v>
       </c>
@@ -11444,7 +11450,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="201" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B201" s="5" t="s">
         <v>948</v>
       </c>
@@ -11479,7 +11485,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="202" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:55" x14ac:dyDescent="0.3">
       <c r="S202" s="4" t="s">
         <v>1317</v>
       </c>
@@ -11496,7 +11502,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="203" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:55" x14ac:dyDescent="0.3">
       <c r="S203" s="4" t="s">
         <v>1318</v>
       </c>
@@ -11510,7 +11516,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="204" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:55" x14ac:dyDescent="0.3">
       <c r="S204" s="4" t="s">
         <v>1319</v>
       </c>
@@ -11521,7 +11527,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="205" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:55" x14ac:dyDescent="0.3">
       <c r="S205" s="4" t="s">
         <v>1320</v>
       </c>
@@ -11532,7 +11538,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="206" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:55" x14ac:dyDescent="0.3">
       <c r="S206" s="4" t="s">
         <v>467</v>
       </c>
@@ -11543,7 +11549,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="207" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:55" x14ac:dyDescent="0.3">
       <c r="S207" s="4" t="s">
         <v>1321</v>
       </c>
@@ -11554,7 +11560,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="208" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:55" x14ac:dyDescent="0.3">
       <c r="S208" s="4" t="s">
         <v>1322</v>
       </c>
@@ -11565,7 +11571,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="209" spans="19:53" x14ac:dyDescent="0.25">
+    <row r="209" spans="19:53" x14ac:dyDescent="0.3">
       <c r="S209" s="5" t="s">
         <v>1323</v>
       </c>
@@ -11576,7 +11582,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="210" spans="19:53" x14ac:dyDescent="0.25">
+    <row r="210" spans="19:53" x14ac:dyDescent="0.3">
       <c r="AG210" s="5" t="s">
         <v>116</v>
       </c>
@@ -11584,17 +11590,17 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="211" spans="19:53" x14ac:dyDescent="0.25">
+    <row r="211" spans="19:53" x14ac:dyDescent="0.3">
       <c r="BA211" s="4" t="s">
         <v>1544</v>
       </c>
     </row>
-    <row r="212" spans="19:53" x14ac:dyDescent="0.25">
+    <row r="212" spans="19:53" x14ac:dyDescent="0.3">
       <c r="BA212" s="5" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="213" spans="19:53" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="19:53" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="AH103:AH125">
     <sortCondition ref="AH125"/>

--- a/TenaIzy.xlsx
+++ b/TenaIzy.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1621">
   <si>
     <t>Direction</t>
   </si>
@@ -4893,9 +4893,6 @@
   </si>
   <si>
     <t>Alaotra_Mangoro</t>
-  </si>
-  <si>
-    <t>Region test</t>
   </si>
 </sst>
 </file>
@@ -5629,18 +5626,15 @@
     <col min="27" max="16384" width="11.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
@@ -5648,7 +5642,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
@@ -5656,7 +5650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
@@ -5664,7 +5658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>37</v>
       </c>
@@ -5672,7 +5666,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
@@ -5680,7 +5674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
@@ -5688,7 +5682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>40</v>
       </c>
@@ -5696,7 +5690,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
@@ -5704,7 +5698,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
@@ -5712,7 +5706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
@@ -5720,7 +5714,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
@@ -5728,7 +5722,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
@@ -5736,12 +5730,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D16" s="5" t="s">
         <v>49</v>
       </c>

--- a/TenaIzy.xlsx
+++ b/TenaIzy.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="1624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1762">
   <si>
     <t>Direction</t>
   </si>
@@ -209,15 +209,9 @@
     <t>Région Origine</t>
   </si>
   <si>
-    <t>Commune Destination</t>
-  </si>
-  <si>
     <t>District Destination</t>
   </si>
   <si>
-    <t>Région destination</t>
-  </si>
-  <si>
     <t>Date d'arrivée</t>
   </si>
   <si>
@@ -5037,6 +5031,426 @@
   </si>
   <si>
     <t>Antananarivo_Antsimondrano</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Pierres_Industrielles</t>
+  </si>
+  <si>
+    <t>Quartz variété cristal prisme</t>
+  </si>
+  <si>
+    <t>Quartz fonte</t>
+  </si>
+  <si>
+    <t>Quartz rose</t>
+  </si>
+  <si>
+    <t>Quartz ananas</t>
+  </si>
+  <si>
+    <t>Quartz cristal géode</t>
+  </si>
+  <si>
+    <t>Quartz Améthyste prisme</t>
+  </si>
+  <si>
+    <t>Quartz hématoïde</t>
+  </si>
+  <si>
+    <t>Quartz fumé prisme</t>
+  </si>
+  <si>
+    <t>Quartz avec inclusion</t>
+  </si>
+  <si>
+    <t>Actinote</t>
+  </si>
+  <si>
+    <t>Agate</t>
+  </si>
+  <si>
+    <t>Agate géode</t>
+  </si>
+  <si>
+    <t>Agate géode Améthyste</t>
+  </si>
+  <si>
+    <t>Amazonite</t>
+  </si>
+  <si>
+    <t>Basalte</t>
+  </si>
+  <si>
+    <t>Béryllium</t>
+  </si>
+  <si>
+    <t>Calcédoine bleu</t>
+  </si>
+  <si>
+    <t>Calcédoine autre</t>
+  </si>
+  <si>
+    <t>Calcite</t>
+  </si>
+  <si>
+    <t>Chrysocolle</t>
+  </si>
+  <si>
+    <t>Chrysoprase</t>
+  </si>
+  <si>
+    <t>Cordiérite</t>
+  </si>
+  <si>
+    <t>Cornaline</t>
+  </si>
+  <si>
+    <t>Dumortiérite</t>
+  </si>
+  <si>
+    <t>Feldspath</t>
+  </si>
+  <si>
+    <t>Fluorine</t>
+  </si>
+  <si>
+    <t>Fluorine Bloc</t>
+  </si>
+  <si>
+    <t>Fluorine géode</t>
+  </si>
+  <si>
+    <t>Fuschiste</t>
+  </si>
+  <si>
+    <t>Gabbro</t>
+  </si>
+  <si>
+    <t>Garniérite</t>
+  </si>
+  <si>
+    <t>Grenatite (roche)</t>
+  </si>
+  <si>
+    <t>Hématite (collection)</t>
+  </si>
+  <si>
+    <t>Jaspe</t>
+  </si>
+  <si>
+    <t>Labradorite petit bloc</t>
+  </si>
+  <si>
+    <t>Lazulite</t>
+  </si>
+  <si>
+    <t>Opale</t>
+  </si>
+  <si>
+    <t>Quartz teinté bleu</t>
+  </si>
+  <si>
+    <t>Rhodonite</t>
+  </si>
+  <si>
+    <t>Spinelle sur gangue (collection)</t>
+  </si>
+  <si>
+    <t>Tourmaline noir</t>
+  </si>
+  <si>
+    <t>Tourmaline sur gangue</t>
+  </si>
+  <si>
+    <t>Turquoise</t>
+  </si>
+  <si>
+    <t>Ardoise</t>
+  </si>
+  <si>
+    <t>Bauxite (Ornemental)</t>
+  </si>
+  <si>
+    <t>Cipolin</t>
+  </si>
+  <si>
+    <t>Dolomie</t>
+  </si>
+  <si>
+    <t>Granite bloc gris, bleu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granite bloc (autres couleurs) </t>
+  </si>
+  <si>
+    <t>Gypse</t>
+  </si>
+  <si>
+    <t>Kaolin</t>
+  </si>
+  <si>
+    <t>Labradorite Bloc</t>
+  </si>
+  <si>
+    <t>Marbre Bloc</t>
+  </si>
+  <si>
+    <t>Pouzzolane</t>
+  </si>
+  <si>
+    <t>Muscovite, phlogopite, biotite</t>
+  </si>
+  <si>
+    <t>Lépidolite</t>
+  </si>
+  <si>
+    <t>Graphite</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Cuivre</t>
+  </si>
+  <si>
+    <t>Zircon</t>
+  </si>
+  <si>
+    <t>Oxyde de fer</t>
+  </si>
+  <si>
+    <t>Manganèse</t>
+  </si>
+  <si>
+    <t>Monazite</t>
+  </si>
+  <si>
+    <t>Minerai de Cuivre</t>
+  </si>
+  <si>
+    <t>Minerai de Tantale</t>
+  </si>
+  <si>
+    <t>Spodumène</t>
+  </si>
+  <si>
+    <t>Iliménite</t>
+  </si>
+  <si>
+    <t>Colombie</t>
+  </si>
+  <si>
+    <t>Pyrite</t>
+  </si>
+  <si>
+    <t>Minerais de Plomb</t>
+  </si>
+  <si>
+    <t>Pierres_Fines</t>
+  </si>
+  <si>
+    <t>Alexandrite</t>
+  </si>
+  <si>
+    <t>Améthyste</t>
+  </si>
+  <si>
+    <t>Andalouthyste</t>
+  </si>
+  <si>
+    <t>Apatite</t>
+  </si>
+  <si>
+    <t>Citrine</t>
+  </si>
+  <si>
+    <t>Chrysobéryl œil de chat</t>
+  </si>
+  <si>
+    <t>Chrysobéryl</t>
+  </si>
+  <si>
+    <t>Corindon opaque</t>
+  </si>
+  <si>
+    <t>Cristal avec inclusion</t>
+  </si>
+  <si>
+    <t>Danburite</t>
+  </si>
+  <si>
+    <t>Dioptase</t>
+  </si>
+  <si>
+    <t>Disthène</t>
+  </si>
+  <si>
+    <t>Epidote</t>
+  </si>
+  <si>
+    <t>Gradidiérite</t>
+  </si>
+  <si>
+    <t>Grenat vert</t>
+  </si>
+  <si>
+    <t>Grenat marron</t>
+  </si>
+  <si>
+    <t>Grenat Almandin</t>
+  </si>
+  <si>
+    <t>Grenat malaya</t>
+  </si>
+  <si>
+    <t>Grenat Rhodolite</t>
+  </si>
+  <si>
+    <t>Grenat orange</t>
+  </si>
+  <si>
+    <t>Grenat changement de couleur</t>
+  </si>
+  <si>
+    <t>Grenat bleu</t>
+  </si>
+  <si>
+    <t>Kornerupine</t>
+  </si>
+  <si>
+    <t>Kunzite</t>
+  </si>
+  <si>
+    <t>Olivine</t>
+  </si>
+  <si>
+    <t>Orthose</t>
+  </si>
+  <si>
+    <t>Phénacite</t>
+  </si>
+  <si>
+    <t>Pezzotaïte</t>
+  </si>
+  <si>
+    <t>Rutile</t>
+  </si>
+  <si>
+    <t>Sphène</t>
+  </si>
+  <si>
+    <t>Scape</t>
+  </si>
+  <si>
+    <t>Spectrolite</t>
+  </si>
+  <si>
+    <t>Spinelle</t>
+  </si>
+  <si>
+    <t>Topaze jaune</t>
+  </si>
+  <si>
+    <t>Topaze bleu</t>
+  </si>
+  <si>
+    <t>Topaze blanc</t>
+  </si>
+  <si>
+    <t>Quartz fumé</t>
+  </si>
+  <si>
+    <t>Quartz vert</t>
+  </si>
+  <si>
+    <t>Quartz bleu</t>
+  </si>
+  <si>
+    <t>Tourmaline</t>
+  </si>
+  <si>
+    <t>Rubellite</t>
+  </si>
+  <si>
+    <t>Indigote</t>
+  </si>
+  <si>
+    <t>Tourmaline Polychrom</t>
+  </si>
+  <si>
+    <t>Tourmaline vert chromifère</t>
+  </si>
+  <si>
+    <t>Tourmaline(autre)</t>
+  </si>
+  <si>
+    <t>Tourmaline (Fine à caractère industrielle)</t>
+  </si>
+  <si>
+    <t>Pierres_Précieuses</t>
+  </si>
+  <si>
+    <t>Saphir bleu</t>
+  </si>
+  <si>
+    <t>Saphir bleu-vert brute</t>
+  </si>
+  <si>
+    <t>Saphir rose brute</t>
+  </si>
+  <si>
+    <t>Saphir orange brute</t>
+  </si>
+  <si>
+    <t>Saphir jaune-blanc brute</t>
+  </si>
+  <si>
+    <t>Rubis brute</t>
+  </si>
+  <si>
+    <t>Emeraude</t>
+  </si>
+  <si>
+    <t>Lépidolite ornementale sans tourmaline</t>
+  </si>
+  <si>
+    <t>Lépidolite ornementale avec tourmaline rose</t>
+  </si>
+  <si>
+    <t>Béryllium bleu</t>
+  </si>
+  <si>
+    <t>Béryllium rose</t>
+  </si>
+  <si>
+    <t>Béryllium saumon</t>
+  </si>
+  <si>
+    <t>Béryllium vert</t>
+  </si>
+  <si>
+    <t>Béryllium jaune</t>
+  </si>
+  <si>
+    <t>Béryllium autres</t>
+  </si>
+  <si>
+    <t>Region Destination</t>
+  </si>
+  <si>
+    <t>Commune destination</t>
   </si>
 </sst>
 </file>
@@ -5047,7 +5461,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5073,6 +5487,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -5104,7 +5524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -5116,6 +5536,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13860,9 +14286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13870,6 +14296,7 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="9"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -13897,13 +14324,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -13912,9 +14339,9 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -13948,119 +14375,160 @@
         <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G2" s="10"/>
       <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R2" t="s">
         <v>1566</v>
       </c>
-      <c r="P2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>209</v>
+      <c r="S2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G3" s="10"/>
       <c r="O3" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O4" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="P4" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="Q4" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O5" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="P5" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="Q5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q6" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8000">
       <formula1>INDIRECT(O2:Q1040580)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8000">
       <formula1>INDIRECT(P2:P1040580)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Attention" error="Le type de permis ce que vous avez saisi n'exist pas!" sqref="D2">
+      <formula1>"PRE,Zone d'encadrement"</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G3:G1048576 U2 U3:U8000">
+      <formula1>45093</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Attention" error="Veuillez entrer un date court!" sqref="G2">
+      <formula1>45093</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8000 T2:T8000">
+      <formula1>INDIRECT(R1040580:R2)</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W8000">
+      <formula1>12</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X8000">
+      <formula1>45093</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y8000">
+      <formula1>9</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Attention" error="Veuillez vérifier le nombre que vouz avez saisi!_x000a_" sqref="AB2:AD8000">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Attention" error="Veuillez choisir un type du produit!" sqref="J2:J8000">
+      <formula1>"Pierres_Industrielles,Pierres_Fines,Pierres_Précieuses"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14077,7 +14545,7 @@
           <x14:formula1>
             <xm:f>Feuil2!$B$28:$X$28</xm:f>
           </x14:formula1>
-          <xm:sqref>O1:O1048576</xm:sqref>
+          <xm:sqref>O1:O1048576 R2:R8000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14087,10 +14555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:DK213"/>
+  <dimension ref="B2:DK214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView tabSelected="1" topLeftCell="P64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T89" sqref="T89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14214,5737 +14682,6263 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D23" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D25" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>1568</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>1585</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="J28" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>1569</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>1568</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>1570</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="M28" s="5" t="s">
+        <v>1571</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="R28" s="5" t="s">
         <v>1587</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>1588</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>1571</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>1572</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>1573</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>1574</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>1575</v>
-      </c>
-      <c r="P28" s="5" t="s">
+      <c r="S28" s="5" t="s">
         <v>1576</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="T28" s="5" t="s">
         <v>1577</v>
       </c>
-      <c r="R28" s="5" t="s">
-        <v>1589</v>
-      </c>
-      <c r="S28" s="5" t="s">
+      <c r="U28" s="5" t="s">
         <v>1578</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="V28" s="5" t="s">
         <v>1579</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="W28" s="5" t="s">
         <v>1580</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="X28" s="5" t="s">
         <v>1581</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>1582</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>1598</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>1600</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="J29" s="5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>1611</v>
-      </c>
       <c r="M29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q29" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="R29" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="I30" s="5" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="M30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q30" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N30" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="R30" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="G31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="I31" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W31" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="X31" s="5" t="s">
         <v>1619</v>
-      </c>
-      <c r="X31" s="5" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="33" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="2:115" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="2:115" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="2:115" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="37" spans="2:115" x14ac:dyDescent="0.25">
       <c r="I37" s="5" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="38" spans="2:115" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:115" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="E42" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="G42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="U42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N42" s="5" t="s">
+      <c r="V42" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Z42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="O42" s="5" t="s">
-        <v>1593</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>1594</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>1591</v>
-      </c>
-      <c r="R42" s="5" t="s">
+      <c r="AA42" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="AB42" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="S42" s="5" t="s">
-        <v>1595</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>1596</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>1597</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>1622</v>
-      </c>
-      <c r="X42" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y42" s="5" t="s">
+      <c r="AC42" s="5" t="s">
         <v>1598</v>
       </c>
-      <c r="Z42" s="5" t="s">
+      <c r="AD42" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AA42" s="5" t="s">
+      <c r="AE42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF42" s="5" t="s">
         <v>1599</v>
       </c>
-      <c r="AB42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC42" s="5" t="s">
+      <c r="AG42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ42" s="5" t="s">
         <v>1600</v>
       </c>
-      <c r="AD42" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF42" s="5" t="s">
+      <c r="AK42" s="5" t="s">
         <v>1601</v>
       </c>
-      <c r="AG42" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH42" s="5" t="s">
+      <c r="AL42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI42" s="5" t="s">
+      <c r="AM42" s="5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="AN42" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AO42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AJ42" s="5" t="s">
-        <v>1602</v>
-      </c>
-      <c r="AK42" s="5" t="s">
-        <v>1603</v>
-      </c>
-      <c r="AL42" s="5" t="s">
+      <c r="AP42" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AM42" s="5" t="s">
+      <c r="AQ42" s="5" t="s">
         <v>1604</v>
       </c>
-      <c r="AN42" s="5" t="s">
+      <c r="AR42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT42" s="5" t="s">
         <v>1605</v>
       </c>
-      <c r="AO42" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP42" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ42" s="5" t="s">
+      <c r="AU42" s="5" t="s">
         <v>1606</v>
       </c>
-      <c r="AR42" s="5" t="s">
+      <c r="AV42" s="5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AW42" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AS42" s="5" t="s">
+      <c r="AX42" s="5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AY42" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AT42" s="5" t="s">
-        <v>1607</v>
-      </c>
-      <c r="AU42" s="5" t="s">
-        <v>1608</v>
-      </c>
-      <c r="AV42" s="5" t="s">
+      <c r="AZ42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA42" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD42" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="AW42" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX42" s="5" t="s">
+      <c r="BE42" s="5" t="s">
         <v>1610</v>
       </c>
-      <c r="AY42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ42" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA42" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB42" s="5" t="s">
+      <c r="BF42" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="BG42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="BC42" s="5" t="s">
+      <c r="BH42" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="BD42" s="5" t="s">
-        <v>1611</v>
-      </c>
-      <c r="BE42" s="5" t="s">
+      <c r="BI42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL42" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN42" s="5" t="s">
         <v>1612</v>
       </c>
-      <c r="BF42" s="5" t="s">
+      <c r="BO42" s="5" t="s">
         <v>1613</v>
       </c>
-      <c r="BG42" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH42" s="5" t="s">
+      <c r="BP42" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="BQ42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS42" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="BT42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW42" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX42" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BY42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BZ42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="CA42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CB42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="CC42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="BI42" s="5" t="s">
+      <c r="CH42" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BJ42" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK42" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="BL42" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM42" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN42" s="5" t="s">
-        <v>1614</v>
-      </c>
-      <c r="BO42" s="5" t="s">
+      <c r="CI42" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CJ42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CK42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL42" s="5" t="s">
         <v>1615</v>
       </c>
-      <c r="BP42" s="5" t="s">
+      <c r="CM42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="CN42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="CO42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP42" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="CQ42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="CR42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="CS42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="CV42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="CX42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="CY42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ42" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="DA42" s="5" t="s">
         <v>1616</v>
       </c>
-      <c r="BQ42" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="BR42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="BS42" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="BT42" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BU42" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="BV42" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="BW42" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BX42" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BY42" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BZ42" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="CA42" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="CB42" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="CC42" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="CD42" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="CF42" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="CG42" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="CH42" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="CI42" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="CJ42" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="CK42" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="CL42" s="5" t="s">
+      <c r="DB42" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="DC42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="DD42" s="5" t="s">
         <v>1617</v>
       </c>
-      <c r="CM42" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="CN42" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="CO42" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="CP42" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CQ42" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="CR42" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="CS42" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="CT42" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="CU42" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="CV42" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="CW42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="CX42" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="CY42" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="CZ42" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="DA42" s="5" t="s">
+      <c r="DE42" s="5" t="s">
         <v>1618</v>
       </c>
-      <c r="DB42" s="5" t="s">
+      <c r="DF42" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="DC42" s="5" t="s">
+      <c r="DG42" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="DD42" s="5" t="s">
+      <c r="DH42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="DI42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="DJ42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK42" s="5" t="s">
         <v>1619</v>
-      </c>
-      <c r="DE42" s="5" t="s">
-        <v>1620</v>
-      </c>
-      <c r="DF42" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="DG42" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="DH42" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="DI42" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="DJ42" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="DK42" s="5" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="43" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="W43" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="X43" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Y43" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AB43" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AC43" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AD43" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AE43" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AF43" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG43" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="AH43" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="AI43" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="AJ43" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="AK43" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="AL43" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="AM43" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="AN43" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="AO43" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="AP43" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="AQ43" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="AR43" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="AS43" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="AT43" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="AU43" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="AV43" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="AW43" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="AX43" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="AY43" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="AZ43" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="AH43" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="AI43" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="AJ43" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="AK43" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="AL43" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="AM43" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="AN43" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="AO43" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="AP43" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="AQ43" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="AR43" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="AS43" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="AT43" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="AU43" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="AV43" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="AW43" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="AX43" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="AY43" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="AZ43" s="4" t="s">
-        <v>568</v>
-      </c>
       <c r="BA43" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="BB43" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="BC43" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="BD43" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="BE43" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="BF43" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="BG43" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BH43" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="BI43" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="BJ43" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="BK43" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="BL43" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="BM43" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="BN43" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="BO43" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="BP43" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="BQ43" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="BR43" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="BS43" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="BT43" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BU43" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BV43" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="BW43" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BX43" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BY43" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="BZ43" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="CA43" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="CB43" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CC43" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CD43" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="CE43" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="CF43" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="CG43" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH43" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="CI43" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="CJ43" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="CK43" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="CL43" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="CM43" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="CN43" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="CO43" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="CP43" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="CQ43" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="CR43" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="CS43" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="CT43" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="CU43" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="CV43" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="CW43" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="CX43" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="CY43" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="CZ43" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="DA43" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="DB43" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="BL43" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="BM43" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="BN43" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="BO43" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="BP43" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="BQ43" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="BR43" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="BS43" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="BT43" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="BU43" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="BV43" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="BW43" s="4" t="s">
-        <v>1098</v>
-      </c>
-      <c r="BX43" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="BY43" s="4" t="s">
-        <v>1119</v>
-      </c>
-      <c r="BZ43" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="CA43" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="CB43" s="5" t="s">
-        <v>1159</v>
-      </c>
-      <c r="CC43" s="4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="CD43" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="CE43" s="4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="CF43" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="CG43" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH43" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="CI43" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="CJ43" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="CK43" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="CL43" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="CM43" s="4" t="s">
-        <v>1076</v>
-      </c>
-      <c r="CN43" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="CO43" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="CP43" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="CQ43" s="4" t="s">
-        <v>1236</v>
-      </c>
-      <c r="CR43" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="CS43" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="CT43" s="4" t="s">
-        <v>1292</v>
-      </c>
-      <c r="CU43" s="4" t="s">
-        <v>1309</v>
-      </c>
-      <c r="CV43" s="4" t="s">
-        <v>1322</v>
-      </c>
-      <c r="CW43" s="5" t="s">
-        <v>1334</v>
-      </c>
-      <c r="CX43" s="4" t="s">
-        <v>1351</v>
-      </c>
-      <c r="CY43" s="4" t="s">
-        <v>1362</v>
-      </c>
-      <c r="CZ43" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="DA43" s="4" t="s">
-        <v>1395</v>
-      </c>
-      <c r="DB43" s="4" t="s">
-        <v>928</v>
-      </c>
       <c r="DC43" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="DD43" s="5" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="DE43" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="DF43" s="4" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="DG43" s="4" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="DH43" s="4" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="DI43" s="4" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="DJ43" s="4" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="DK43" s="4" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="44" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R44" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y44" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA44" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB44" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC44" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="AD44" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE44" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="AF44" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="AG44" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="AH44" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="AI44" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="AM44" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN44" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AO44" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="AP44" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="AQ44" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="AR44" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="AS44" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="AU44" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="AV44" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="AW44" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="AX44" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="AY44" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="AZ44" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="BA44" s="5" t="s">
+        <v>1560</v>
+      </c>
+      <c r="BB44" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="BC44" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="BD44" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="BF44" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="BG44" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="BH44" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="BI44" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="BJ44" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="BK44" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="BL44" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="BM44" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="BO44" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="BQ44" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="BR44" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="BS44" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="BT44" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BU44" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BV44" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BW44" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="S44" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="W44" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="X44" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y44" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="Z44" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA44" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB44" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="AC44" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="AD44" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="AE44" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF44" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="AG44" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="AH44" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="AI44" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="AK44" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="AL44" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="AM44" s="4" t="s">
+      <c r="BX44" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="BY44" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="BZ44" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="CA44" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="CC44" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="CD44" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="CE44" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="CF44" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="CG44" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="CH44" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="CI44" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="CJ44" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="CK44" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="CL44" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="CM44" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="CN44" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="AN44" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="AO44" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="AP44" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AQ44" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="AR44" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="AS44" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="AU44" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="AV44" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="AW44" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="AX44" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="AY44" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="AZ44" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="BA44" s="5" t="s">
-        <v>1562</v>
-      </c>
-      <c r="BB44" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="BC44" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="BD44" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="BF44" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="BG44" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="BH44" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="BI44" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="BJ44" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK44" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="BL44" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="BM44" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="BO44" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="BQ44" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="BR44" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="BS44" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="BT44" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="BU44" s="4" t="s">
-        <v>1076</v>
-      </c>
-      <c r="BV44" s="4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="BW44" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="BX44" s="4" t="s">
-        <v>1108</v>
-      </c>
-      <c r="BY44" s="4" t="s">
-        <v>1120</v>
-      </c>
-      <c r="BZ44" s="4" t="s">
-        <v>1132</v>
-      </c>
-      <c r="CA44" s="4" t="s">
-        <v>1145</v>
-      </c>
-      <c r="CC44" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="CD44" s="4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="CE44" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="CF44" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="CG44" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="CH44" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="CI44" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="CJ44" s="5" t="s">
-        <v>902</v>
-      </c>
-      <c r="CK44" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="CL44" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="CM44" s="4" t="s">
-        <v>1210</v>
-      </c>
-      <c r="CN44" s="4" t="s">
-        <v>639</v>
-      </c>
       <c r="CO44" s="4" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="CP44" s="4" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="CQ44" s="4" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="CR44" s="4" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="CS44" s="4" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="CT44" s="4" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="CU44" s="4" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="CV44" s="4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="CW44" s="4" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="CX44" s="4" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="CY44" s="4" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="CZ44" s="4" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="DA44" s="4" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="DB44" s="4" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="DC44" s="4" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="DE44" s="4" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="DF44" s="4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="DG44" s="4" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="DH44" s="4" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="DI44" s="4" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="DJ44" s="4" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="DK44" s="4" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="45" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Y45" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AB45" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AD45" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AE45" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AF45" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AG45" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AH45" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AI45" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AK45" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AL45" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AM45" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AO45" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AP45" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AQ45" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AR45" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AS45" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AU45" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AV45" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AW45" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AX45" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AY45" s="4" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="AZ45" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="BA45" s="5" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="BB45" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="BC45" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="BD45" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="BF45" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="BG45" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="BH45" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="BI45" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BJ45" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="BK45" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="BL45" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="BM45" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="BO45" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="BQ45" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="BR45" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BS45" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="BT45" s="5" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="BU45" s="4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="BV45" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="BW45" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="BX45" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="BY45" s="4" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="BZ45" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="CA45" s="4" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="CC45" s="4" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="CD45" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="CE45" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="CF45" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="CG45" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="CH45" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="CI45" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="CJ45" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="CK45" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="CL45" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="CM45" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="CN45" s="4" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="CO45" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="CP45" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="CQ45" s="4" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="CR45" s="4" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="CS45" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CT45" s="4" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="CU45" s="4" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="CV45" s="4" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="CW45" s="4" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="CX45" s="4" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="CY45" s="4" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="CZ45" s="4" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="DA45" s="4" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="DB45" s="5" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="DC45" s="4" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="DE45" s="4" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="DF45" s="4" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="DG45" s="4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="DH45" s="4" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="DI45" s="4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="DJ45" s="4" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="DK45" s="4" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="46" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="W46" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Y46" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Z46" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AB46" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AD46" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AE46" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF46" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AG46" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AH46" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AI46" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AK46" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AL46" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AO46" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AP46" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AQ46" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AR46" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AS46" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AU46" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AV46" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AW46" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AX46" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="AY46" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AZ46" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="BA46" s="5" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="BB46" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="BC46" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="BD46" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="BF46" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="BG46" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="BH46" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="BJ46" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="BK46" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="BL46" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="BM46" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="BO46" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="BQ46" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="BR46" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="BS46" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="BU46" s="4" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="BV46" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="BW46" s="4" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="BX46" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="BY46" s="4" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="BZ46" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="CA46" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="CC46" s="4" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="CD46" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="CE46" s="4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="CF46" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="CG46" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="CH46" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="CI46" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="CJ46" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="CL46" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="CM46" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="CN46" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="CO46" s="4" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="CP46" s="4" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="CQ46" s="4" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="CR46" s="4" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="CS46" s="4" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="CT46" s="4" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="CU46" s="4" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="CV46" s="4" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="CW46" s="4" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="CX46" s="4" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="CY46" s="4" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="CZ46" s="4" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="DA46" s="4" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="DB46" s="4" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="DC46" s="4" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="DE46" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="DF46" s="4" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="DG46" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="DH46" s="4" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="DI46" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="DJ46" s="4" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="DK46" s="4" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="47" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W47" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="X47" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Y47" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AB47" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AD47" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AE47" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF47" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AG47" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AH47" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AI47" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AL47" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AM47" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AP47" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AQ47" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AR47" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AS47" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AU47" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AV47" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AW47" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AX47" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AY47" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AZ47" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="BA47" s="5" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="BB47" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="BC47" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="BD47" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="BF47" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="BG47" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="BH47" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="BJ47" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="BK47" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="BL47" s="4" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="BM47" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="BO47" s="4" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="BQ47" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="BR47" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BS47" s="4" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="BU47" s="4" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="BW47" s="4" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="BX47" s="4" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="BY47" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="BZ47" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="CA47" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="CC47" s="4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="CD47" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="CE47" s="4" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="CF47" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="CH47" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="CI47" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="CJ47" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="CL47" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="CM47" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="CN47" s="4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="CO47" s="4" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="CP47" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CQ47" s="4" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="CR47" s="4" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="CS47" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="CT47" s="4" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="CU47" s="4" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="CV47" s="4" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="CW47" s="4" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="CX47" s="4" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="CY47" s="4" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="CZ47" s="4" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="DA47" s="4" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="DB47" s="4" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="DC47" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="DE47" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="DF47" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="DG47" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="DH47" s="4" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="DI47" s="4" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="DJ47" s="4" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="DK47" s="4" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="48" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X48" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="Y48" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AA48" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AB48" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AD48" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AG48" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AH48" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AI48" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AL48" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AM48" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AN48" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AP48" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AQ48" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AR48" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AS48" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AU48" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AV48" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AW48" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AX48" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AY48" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AZ48" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="BB48" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="BC48" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="BD48" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="BF48" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="BG48" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="BH48" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="BJ48" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="BK48" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="BL48" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="BM48" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="BO48" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="BQ48" s="4" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="BR48" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BS48" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="BU48" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="BW48" s="4" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="BX48" s="4" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="BY48" s="4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="BZ48" s="4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="CA48" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="CC48" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="CD48" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="CE48" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="CF48" s="4" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="CI48" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="CJ48" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="CL48" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="CM48" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="CN48" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="CO48" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="CQ48" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="CR48" s="4" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="CS48" s="4" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="CT48" s="4" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="CU48" s="4" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="CV48" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="CW48" s="4" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="CX48" s="4" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="CY48" s="4" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="CZ48" s="4" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="DA48" s="4" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="DB48" s="4" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="DC48" s="4" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="DE48" s="4" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="DF48" s="4" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="DG48" s="4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="DH48" s="4" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="DI48" s="4" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="DJ48" s="4" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="DK48" s="4" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="49" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Y49" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AB49" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AD49" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AE49" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AG49" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AH49" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AI49" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AL49" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AM49" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AP49" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AQ49" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AR49" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AS49" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AU49" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AV49" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AW49" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AY49" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AZ49" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="BB49" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="BC49" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="BD49" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="BF49" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="BG49" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="BH49" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BJ49" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="BK49" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="BL49" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="BM49" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="BO49" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="BQ49" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="BR49" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BS49" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="BU49" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="BW49" s="4" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="BX49" s="4" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="BY49" s="4" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="BZ49" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="CA49" s="4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="CC49" s="4" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="CD49" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="CE49" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="CF49" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="CI49" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="CJ49" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="CL49" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="CM49" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="CO49" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="CQ49" s="4" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="CR49" s="4" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="CS49" s="4" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="CT49" s="4" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="CU49" s="4" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="CV49" s="4" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="CW49" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CX49" s="4" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="CY49" s="4" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="CZ49" s="5" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="DA49" s="4" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="DB49" s="4" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="DC49" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="DE49" s="4" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="DF49" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="DG49" s="4" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="DH49" s="4" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="DI49" s="4" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="DJ49" s="4" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="DK49" s="4" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="50" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Y50" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Z50" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AD50" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AE50" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AG50" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AH50" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AI50" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AK50" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AL50" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AM50" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AP50" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AQ50" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AR50" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AS50" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AU50" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AW50" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AY50" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AZ50" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="BB50" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="BC50" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BD50" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="BF50" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="BG50" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="BJ50" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="BK50" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="BL50" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="BM50" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="BO50" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="BQ50" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="BR50" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="BS50" s="4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="BU50" s="4" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="BW50" s="4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="BX50" s="4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="BY50" s="4" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="BZ50" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="CA50" s="4" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="CC50" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="CE50" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="CF50" s="4" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="CI50" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="CJ50" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="CL50" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="CM50" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CO50" s="4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="CQ50" s="4" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="CR50" s="4" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="CS50" s="4" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="CT50" s="4" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="CU50" s="4" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="CV50" s="4" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="CW50" s="4" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="CX50" s="4" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="CY50" s="4" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="CZ50" s="4" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="DA50" s="4" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="DB50" s="4" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="DC50" s="4" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="DE50" s="4" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="DF50" s="4" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="DG50" s="4" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="DH50" s="5" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="DI50" s="4" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="DJ50" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="DK50" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M51" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z51" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC51" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD51" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="AE51" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="AG51" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH51" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AI51" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="AK51" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="AL51" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="AM51" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="AQ51" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="AS51" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="AU51" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="AW51" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="AY51" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="AZ51" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="BB51" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="BC51" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="BD51" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="BF51" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="BG51" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="BK51" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="BL51" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="BM51" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="BO51" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="BQ51" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="BR51" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="BS51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU51" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="BW51" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BX51" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="BY51" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="N51" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>1532</v>
-      </c>
-      <c r="R51" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="S51" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="T51" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="U51" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="X51" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y51" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="Z51" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="AC51" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD51" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="AE51" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="AG51" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH51" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="AI51" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="AK51" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="AL51" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="AM51" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="AQ51" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="AS51" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="AU51" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="AW51" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="AY51" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="AZ51" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="BB51" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="BC51" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="BD51" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="BF51" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="BG51" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="BK51" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="BL51" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="BM51" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="BO51" s="4" t="s">
-        <v>985</v>
-      </c>
-      <c r="BQ51" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="BR51" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="BS51" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BU51" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="BW51" s="4" t="s">
-        <v>1105</v>
-      </c>
-      <c r="BX51" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="BY51" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="BZ51" s="4" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="CA51" s="4" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="CC51" s="4" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="CE51" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="CF51" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="CJ51" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="CL51" s="4" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="CM51" s="4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="CO51" s="4" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="CQ51" s="4" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="CR51" s="4" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="CS51" s="4" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="CT51" s="4" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="CU51" s="4" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="CV51" s="4" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="CW51" s="4" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="CX51" s="4" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="CY51" s="4" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="CZ51" s="4" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="DA51" s="4" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="DB51" s="4" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="DC51" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="DE51" s="4" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="DF51" s="4" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="DG51" s="5" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="DI51" s="4" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="DJ51" s="4" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="DK51" s="4" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="52" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="T52" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="X52" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AC52" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AD52" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AE52" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG52" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AH52" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AI52" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AK52" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AL52" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AM52" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AQ52" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AS52" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AU52" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AW52" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AY52" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AZ52" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BB52" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="BC52" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BD52" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="BF52" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="BG52" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="BK52" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="BL52" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="BM52" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="BO52" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="BQ52" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="BR52" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="BS52" s="4" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="BU52" s="4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="BW52" s="5" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="BX52" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="BY52" s="4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="BZ52" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="CA52" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="CC52" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="CE52" s="4" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="CF52" s="4" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="CJ52" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="CL52" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="CM52" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="CO52" s="4" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="CQ52" s="4" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="CR52" s="4" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="CS52" s="4" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="CT52" s="4" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="CU52" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="CV52" s="4" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="CW52" s="4" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="CX52" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="CY52" s="5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="CZ52" s="4" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="DA52" s="4" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="DB52" s="4" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="DC52" s="4" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="DE52" s="4" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="DF52" s="4" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="DI52" s="4" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="DJ52" s="4" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="DK52" s="4" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="53" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Y53" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AD53" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AE53" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG53" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AH53" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AI53" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AK53" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AL53" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AM53" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AQ53" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AS53" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AU53" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AW53" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AY53" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AZ53" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="BB53" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="BC53" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="BD53" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="BG53" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="BK53" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="BL53" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="BM53" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="BO53" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="BQ53" s="4" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="BR53" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="BS53" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BU53" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="BW53" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="BX53" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="BY53" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BZ53" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="CA53" s="4" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="CC53" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="CE53" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="CF53" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="CJ53" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="CL53" s="4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="CM53" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="CO53" s="4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="CQ53" s="4" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="CR53" s="4" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="CS53" s="4" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="CT53" s="4" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="CU53" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="CV53" s="4" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="CW53" s="4" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="CX53" s="4" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="CZ53" s="4" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="DA53" s="4" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="DB53" s="4" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="DC53" s="4" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="DE53" s="4" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="DF53" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="DI53" s="4" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="DJ53" s="4" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="DK53" s="5" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="54" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="S54" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AD54" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AE54" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AG54" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AI54" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AK54" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AL54" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AM54" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AQ54" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AS54" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AU54" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AW54" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AY54" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AZ54" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="BB54" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="BC54" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BK54" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="BL54" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="BM54" s="4" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="BO54" s="4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="BQ54" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="BR54" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="BS54" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="BU54" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="BW54" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BX54" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="BY54" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="BZ54" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="CA54" s="4" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="CE54" s="4" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="CF54" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="CJ54" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="CL54" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="CO54" s="4" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="CQ54" s="4" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="CR54" s="4" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="CS54" s="4" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="CT54" s="4" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="CU54" s="4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="CV54" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="CW54" s="4" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="CX54" s="5" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="CZ54" s="4" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="DA54" s="4" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="DB54" s="4" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="DC54" s="5" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="DE54" s="4" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="DF54" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="DI54" s="4" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="DJ54" s="4" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="DK54" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Y55" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AD55" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AE55" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AG55" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AI55" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AK55" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AL55" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AM55" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AQ55" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AU55" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AW55" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AY55" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AZ55" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="BB55" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="BK55" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="BL55" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="BM55" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="BO55" s="4" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="BQ55" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="BR55" s="4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="BS55" s="4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="BU55" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="BW55" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="BX55" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="BY55" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="BZ55" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="CA55" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="CE55" s="4" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="CF55" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="CJ55" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="CL55" s="4" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="CO55" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="CQ55" s="4" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="CR55" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="CS55" s="4" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="CT55" s="4" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="CU55" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="CW55" s="4" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="CZ55" s="4" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="DA55" s="4" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="DB55" s="4" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="DE55" s="4" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="DF55" s="4" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="DI55" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="DJ55" s="4" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="DK55" s="4" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="56" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="T56" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Y56" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AD56" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AE56" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AG56" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AI56" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AK56" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AL56" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AM56" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AQ56" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AU56" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AW56" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AY56" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AZ56" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="BB56" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="BK56" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="BL56" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="BM56" s="4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="BO56" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="BQ56" s="4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="BR56" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="BS56" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="BU56" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="BW56" s="4" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="BX56" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="BY56" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="BZ56" s="4" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="CA56" s="4" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="CE56" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="CJ56" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="CL56" s="5" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="CO56" s="4" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="CQ56" s="4" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="CR56" s="4" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="CS56" s="4" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="CT56" s="4" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="CW56" s="4" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="CZ56" s="4" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="DA56" s="4" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="DB56" s="4" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="DE56" s="4" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="DF56" s="4" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="DJ56" s="4" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="DK56" s="4" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="57" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="U57" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y57" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z57" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="Y57" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="Z57" s="4" t="s">
-        <v>435</v>
-      </c>
       <c r="AC57" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AD57" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AG57" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AK57" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AL57" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AM57" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AQ57" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AU57" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AW57" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AY57" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AZ57" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="BB57" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="BK57" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BL57" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="BM57" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="BO57" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="BQ57" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="BR57" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="BS57" s="4" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="BU57" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="BW57" s="4" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="BY57" s="5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="BZ57" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="CA57" s="4" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="CJ57" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="CO57" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="CQ57" s="4" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="CR57" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="CS57" s="4" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="CT57" s="4" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="CW57" s="4" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="CZ57" s="4" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="DA57" s="5" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="DB57" s="4" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="DE57" s="4" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="DF57" s="4" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="DJ57" s="4" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="DK57" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Y58" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AC58" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AD58" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AG58" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AK58" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AL58" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AM58" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AQ58" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AU58" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AW58" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AY58" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AZ58" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BB58" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BK58" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="BL58" s="4" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="BO58" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="BR58" s="4" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="BS58" s="4" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="BU58" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="BW58" s="4" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="BZ58" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="CA58" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="CJ58" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="CQ58" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="CR58" s="4" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="CS58" s="4" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="CT58" s="4" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="CW58" s="4" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="CZ58" s="4" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="DB58" s="4" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="DE58" s="5" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="DF58" s="4" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="DJ58" s="4" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="DK58" s="4" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="59" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Y59" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AD59" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AG59" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AK59" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AL59" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AQ59" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AU59" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AW59" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AY59" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="BB59" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="BK59" s="4" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="BL59" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="BO59" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="BR59" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="BS59" s="4" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="BU59" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="BW59" s="4" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="BZ59" s="5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="CA59" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="CJ59" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="CQ59" s="4" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="CR59" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="CS59" s="4" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="CT59" s="4" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="CW59" s="4" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="CZ59" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="DB59" s="4" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="DE59" s="4" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="DF59" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="DJ59" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="DK59" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="60" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Y60" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Z60" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AD60" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AL60" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AQ60" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AU60" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AW60" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AY60" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="BK60" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="BL60" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="BO60" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="BR60" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="BS60" s="4" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="BU60" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="BW60" s="4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="CJ60" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="CQ60" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="CS60" s="4" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="CT60" s="4" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="CW60" s="5" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="CZ60" s="4" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="DB60" s="5" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="DE60" s="4" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="DF60" s="5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="DJ60" s="4" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="DK60" s="5" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="61" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="Z61" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AD61" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AL61" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AQ61" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AU61" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AW61" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AY61" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="BL61" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="BO61" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="BR61" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="BS61" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="BU61" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="BW61" s="4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="CS61" s="4" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="CT61" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="CZ61" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="DE61" s="4" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="DJ61" s="4" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="62" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AD62" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AQ62" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AU62" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AW62" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AY62" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="BL62" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="BO62" s="4" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="BR62" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="BW62" s="5" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="CS62" s="4" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="CZ62" s="4" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="DE62" s="5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="DJ62" s="4" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="63" spans="2:115" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AE63" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AQ63" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AU63" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AY63" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="BL63" s="7" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="BO63" s="6" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BR63" s="7" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="BW63" s="6" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="CS63" s="7" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="CZ63" s="7" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="DJ63" s="7" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="64" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AE64" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AQ64" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AU64" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AW64" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AY64" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="BL64" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="BR64" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="BW64" s="5" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="CS64" s="4" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="CZ64" s="4" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="DJ64" s="4" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="65" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AQ65" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AU65" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AW65" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AY65" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="BL65" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="BR65" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="BW65" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="CS65" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="CZ65" s="4" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="DJ65" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AQ66" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AW66" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AY66" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="BR66" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="BW66" s="5" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="CS66" s="4" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="CZ66" s="4" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="DJ66" s="4" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="67" spans="2:114" x14ac:dyDescent="0.25">
       <c r="K67" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AQ67" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AW67" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AY67" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="BR67" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="BW67" s="5" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="CS67" s="4" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="CZ67" s="4" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="DJ67" s="4" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="68" spans="2:114" x14ac:dyDescent="0.25">
       <c r="O68" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AE68" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AQ68" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AW68" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AY68" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="BR68" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="BW68" s="5" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="CS68" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="CZ68" s="4" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="DJ68" s="4" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="69" spans="2:114" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AE69" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AQ69" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AW69" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AY69" s="7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="BR69" s="7" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="BW69" s="6" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="CZ69" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="DJ69" s="7" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="70" spans="2:114" x14ac:dyDescent="0.25">
+      <c r="R70" s="5" t="s">
+        <v>1623</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>1697</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>1744</v>
+      </c>
       <c r="AE70" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AW70" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AY70" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="BR70" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="BW70" s="5" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="DJ70" s="4" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="71" spans="2:114" x14ac:dyDescent="0.25">
+      <c r="R71" s="5" t="s">
+        <v>1624</v>
+      </c>
+      <c r="S71" s="5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="T71" s="5" t="s">
+        <v>1745</v>
+      </c>
       <c r="AW71" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AY71" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BR71" s="4" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="BW71" s="5" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="DJ71" s="5" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="72" spans="2:114" x14ac:dyDescent="0.25">
+      <c r="R72" s="5" t="s">
+        <v>1625</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="T72" s="5" t="s">
+        <v>1746</v>
+      </c>
       <c r="AW72" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BR72" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="BW72" s="5" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="73" spans="2:114" x14ac:dyDescent="0.25">
+      <c r="R73" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>1700</v>
+      </c>
+      <c r="T73" s="5" t="s">
+        <v>1747</v>
+      </c>
       <c r="AW73" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="BR73" s="4" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="BW73" s="5" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="74" spans="2:114" x14ac:dyDescent="0.25">
+      <c r="R74" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="S74" s="5" t="s">
+        <v>1701</v>
+      </c>
+      <c r="T74" s="5" t="s">
+        <v>1748</v>
+      </c>
       <c r="AW74" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="BR74" s="4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="BW74" s="5" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="75" spans="2:114" x14ac:dyDescent="0.25">
+      <c r="R75" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="T75" s="5" t="s">
+        <v>1749</v>
+      </c>
       <c r="BR75" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="76" spans="2:114" x14ac:dyDescent="0.25">
+      <c r="R76" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="T76" s="5" t="s">
+        <v>1750</v>
+      </c>
       <c r="BR76" s="4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="77" spans="2:114" x14ac:dyDescent="0.25">
+      <c r="R77" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>1751</v>
+      </c>
       <c r="BR77" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="78" spans="2:114" x14ac:dyDescent="0.25">
+      <c r="R78" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>1645</v>
+      </c>
       <c r="BR78" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="79" spans="2:114" x14ac:dyDescent="0.25">
+      <c r="R79" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>1705</v>
+      </c>
       <c r="BR79" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="80" spans="2:114" x14ac:dyDescent="0.25">
+      <c r="R80" s="5" t="s">
+        <v>1633</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>1706</v>
+      </c>
       <c r="BR80" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="81" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R81" s="5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="S81" s="5" t="s">
+        <v>1707</v>
+      </c>
+      <c r="BR81" s="4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="82" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R82" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="S82" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="BR82" s="4" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="81" spans="70:70" x14ac:dyDescent="0.25">
-      <c r="BR81" s="4" t="s">
+    <row r="83" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R83" s="5" t="s">
+        <v>1636</v>
+      </c>
+      <c r="S83" s="5" t="s">
+        <v>1709</v>
+      </c>
+      <c r="BR83" s="4" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="82" spans="70:70" x14ac:dyDescent="0.25">
-      <c r="BR82" s="4" t="s">
+    <row r="84" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R84" s="5" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S84" s="5" t="s">
+        <v>1710</v>
+      </c>
+      <c r="BR84" s="4" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="83" spans="70:70" x14ac:dyDescent="0.25">
-      <c r="BR83" s="4" t="s">
+    <row r="85" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R85" s="5" t="s">
+        <v>1638</v>
+      </c>
+      <c r="S85" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="BR85" s="4" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="84" spans="70:70" x14ac:dyDescent="0.25">
-      <c r="BR84" s="4" t="s">
+    <row r="86" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R86" s="5" t="s">
+        <v>1639</v>
+      </c>
+      <c r="S86" s="5" t="s">
+        <v>1712</v>
+      </c>
+      <c r="BR86" s="4" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="85" spans="70:70" x14ac:dyDescent="0.25">
-      <c r="BR85" s="4" t="s">
+    <row r="87" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R87" s="5" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S87" s="5" t="s">
+        <v>1713</v>
+      </c>
+      <c r="BR87" s="5" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="86" spans="70:70" x14ac:dyDescent="0.25">
-      <c r="BR86" s="4" t="s">
-        <v>1054</v>
+    <row r="88" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R88" s="5" t="s">
+        <v>1641</v>
+      </c>
+      <c r="S88" s="5" t="s">
+        <v>1714</v>
       </c>
     </row>
-    <row r="87" spans="70:70" x14ac:dyDescent="0.25">
-      <c r="BR87" s="5" t="s">
-        <v>1055</v>
+    <row r="89" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R89" s="5" t="s">
+        <v>1642</v>
+      </c>
+      <c r="S89" s="5" t="s">
+        <v>1715</v>
       </c>
     </row>
-    <row r="100" spans="38:38" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R90" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="S90" s="5" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="91" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R91" s="5" t="s">
+        <v>1644</v>
+      </c>
+      <c r="S91" s="5" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="92" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R92" s="5" t="s">
+        <v>1645</v>
+      </c>
+      <c r="S92" s="5" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="93" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R93" s="5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="S93" s="5" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="94" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R94" s="5" t="s">
+        <v>1647</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="95" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R95" s="5" t="s">
+        <v>1648</v>
+      </c>
+      <c r="S95" s="5" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="96" spans="18:70" x14ac:dyDescent="0.25">
+      <c r="R96" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="S96" s="5" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="97" spans="18:38" x14ac:dyDescent="0.25">
+      <c r="R97" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="S97" s="5" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="98" spans="18:38" x14ac:dyDescent="0.25">
+      <c r="R98" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="S98" s="5" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="99" spans="18:38" x14ac:dyDescent="0.25">
+      <c r="R99" s="11" t="s">
+        <v>1653</v>
+      </c>
+      <c r="S99" s="5" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="100" spans="18:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R100" s="11" t="s">
+        <v>1654</v>
+      </c>
+      <c r="S100" s="6" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="101" spans="18:38" x14ac:dyDescent="0.25">
+      <c r="R101" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="S101" s="5" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="102" spans="18:38" x14ac:dyDescent="0.25">
+      <c r="R102" s="11" t="s">
+        <v>1656</v>
+      </c>
+      <c r="S102" s="5" t="s">
+        <v>1726</v>
+      </c>
       <c r="AL102" s="4"/>
     </row>
-    <row r="103" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="18:38" x14ac:dyDescent="0.25">
+      <c r="R103" s="11" t="s">
+        <v>1657</v>
+      </c>
+      <c r="S103" s="5" t="s">
+        <v>1727</v>
+      </c>
       <c r="AL103" s="4"/>
     </row>
-    <row r="125" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH125" s="4" t="s">
-        <v>1549</v>
+    <row r="104" spans="18:38" x14ac:dyDescent="0.25">
+      <c r="R104" s="11" t="s">
+        <v>1658</v>
+      </c>
+      <c r="S104" s="5" t="s">
+        <v>1728</v>
       </c>
     </row>
-    <row r="135" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="18:38" x14ac:dyDescent="0.25">
+      <c r="R105" s="11" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S105" s="5" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="106" spans="18:38" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R106" s="11" t="s">
+        <v>1753</v>
+      </c>
+      <c r="S106" s="5" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="107" spans="18:38" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R107" s="11" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="108" spans="18:38" x14ac:dyDescent="0.25">
+      <c r="R108" s="11" t="s">
+        <v>1660</v>
+      </c>
+      <c r="S108" s="5" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="109" spans="18:38" x14ac:dyDescent="0.25">
+      <c r="R109" s="11" t="s">
+        <v>1661</v>
+      </c>
+      <c r="S109" s="5" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="110" spans="18:38" x14ac:dyDescent="0.25">
+      <c r="R110" s="11" t="s">
+        <v>1662</v>
+      </c>
+      <c r="S110" s="5" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="111" spans="18:38" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R111" s="11" t="s">
+        <v>1663</v>
+      </c>
+      <c r="S111" s="5" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="112" spans="18:38" x14ac:dyDescent="0.25">
+      <c r="R112" s="11" t="s">
+        <v>1664</v>
+      </c>
+      <c r="S112" s="5" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="113" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R113" s="11" t="s">
+        <v>1665</v>
+      </c>
+      <c r="S113" s="5" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="114" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R114" s="11" t="s">
+        <v>1666</v>
+      </c>
+      <c r="S114" s="5" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="115" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R115" s="11" t="s">
+        <v>1667</v>
+      </c>
+      <c r="S115" s="5" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="116" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R116" s="11" t="s">
+        <v>1668</v>
+      </c>
+      <c r="S116" s="5" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="117" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R117" s="11" t="s">
+        <v>1669</v>
+      </c>
+      <c r="S117" s="5" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="118" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R118" s="11" t="s">
+        <v>1670</v>
+      </c>
+      <c r="S118" s="5" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="119" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R119" s="11" t="s">
+        <v>1671</v>
+      </c>
+      <c r="S119" s="5" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="120" spans="18:34" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R120" s="11" t="s">
+        <v>1672</v>
+      </c>
+      <c r="S120" s="5" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="121" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R121" s="11" t="s">
+        <v>1673</v>
+      </c>
+      <c r="S121" s="5" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="122" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R122" s="11" t="s">
+        <v>1674</v>
+      </c>
+      <c r="S122" s="5" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="123" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R123" s="11" t="s">
+        <v>1675</v>
+      </c>
+      <c r="S123" s="5" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="124" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R124" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="125" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R125" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="S125" s="5" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="126" spans="18:34" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R126" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="S126" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AH126" s="4" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="127" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R127" s="11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="S127" s="5" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="128" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R128" s="5" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="129" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R129" s="5" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="130" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R130" s="5" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="131" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R131" s="5" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="132" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R132" s="5" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="133" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R133" s="5" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="134" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R134" s="5" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="135" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R135" s="5" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="136" spans="18:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R136" s="6" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="137" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R137" s="5" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="138" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R138" s="5" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="139" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R139" s="5" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="140" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R140" s="5" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="141" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R141" s="5" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="142" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R142" s="5" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="143" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R143" s="5" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="144" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R144" s="5" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="183" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="AH103:AH125">
     <sortCondition ref="AH125"/>
